--- a/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
+++ b/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/viviane_santos_sptech_school/Documents/PI/projeto-pi/Documentação/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1238" documentId="8_{CBC8C41A-E05A-4B46-B23C-A18556E3780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39E0DD6-74F8-472A-8155-8BDC69263EFD}"/>
+  <xr:revisionPtr revIDLastSave="1248" documentId="8_{CBC8C41A-E05A-4B46-B23C-A18556E3780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9DD19E-A584-4A11-B46A-3C022FC69AF6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0E4C50FC-4743-41E1-8EF2-E2C48055392E}"/>
   </bookViews>
@@ -1000,6 +1000,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,20 +1018,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2896,6 +2896,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3215,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3238,18 +3242,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -3731,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>33</v>
@@ -3764,7 +3768,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>36</v>
@@ -3959,7 +3963,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>35</v>
@@ -3967,14 +3971,14 @@
       <c r="J21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="M21" s="66"/>
-      <c r="N21" s="64" t="s">
+      <c r="M21" s="68"/>
+      <c r="N21" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="O21" s="67"/>
+      <c r="O21" s="62"/>
     </row>
     <row r="22" spans="1:15" ht="32.1" customHeight="1">
       <c r="A22" s="26" t="s">
@@ -4007,10 +4011,10 @@
       <c r="J22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="M22" s="68"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="31">
         <v>1242072</v>
       </c>
@@ -4046,10 +4050,10 @@
       <c r="J23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="M23" s="68"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="31">
         <v>1242121</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>84</v>
@@ -4085,10 +4089,10 @@
       <c r="J24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="M24" s="68"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="31">
         <v>1242060</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>36</v>
@@ -4124,10 +4128,10 @@
       <c r="J25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="68" t="s">
+      <c r="L25" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="68"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="31">
         <v>1242007</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>34</v>
@@ -4163,10 +4167,10 @@
       <c r="J26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="M26" s="68"/>
+      <c r="M26" s="63"/>
       <c r="N26" s="31">
         <v>1242050</v>
       </c>
@@ -4837,18 +4841,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5302,18 +5306,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5923,18 +5927,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
       <c r="A2" s="3" t="s">

--- a/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
+++ b/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/viviane_santos_sptech_school/Documents/PI/projeto-pi/Documentação/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Projeto\projeto-pi\Documentação\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1248" documentId="8_{CBC8C41A-E05A-4B46-B23C-A18556E3780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E9DD19E-A584-4A11-B46A-3C022FC69AF6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7837E0A1-EC4C-43C0-AAB9-F92E9E4E8307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0E4C50FC-4743-41E1-8EF2-E2C48055392E}"/>
   </bookViews>
@@ -1682,7 +1682,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="808080"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1692,94 +1692,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.9287622917622571E-2"/>
-                  <c:y val="3.3390641328734247E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2206514881782123E-2"/>
-                  <c:y val="-3.3252648616629972E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5293947140059539E-2"/>
-                  <c:y val="2.6305508637543096E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.6045216481050167E-2"/>
-                  <c:y val="3.32888751602885E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1835,48 +1747,11 @@
           <c:cat>
             <c:strRef>
               <c:f>BackLog!$L$3:$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPRINT1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPRINT2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SPRINT3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SPRINT4</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>BackLog!$M$3:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1895,7 +1770,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="6600FF"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1905,94 +1780,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.3906894043922723E-2"/>
-                  <c:y val="-2.2801982117361314E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5293947140059498E-2"/>
-                  <c:y val="2.6305508637543225E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5429809538722129E-2"/>
-                  <c:y val="-4.036217694426622E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5293959320952681E-2"/>
-                  <c:y val="-3.3236609383559733E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EA69-4627-ADE5-D4A6010A07C6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2048,48 +1835,11 @@
           <c:cat>
             <c:strRef>
               <c:f>BackLog!$L$3:$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SPRINT1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPRINT2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SPRINT3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SPRINT4</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>BackLog!$N$3:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2107,6 +1857,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1814549743"/>
         <c:axId val="1814548303"/>
@@ -2896,10 +2647,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3217,10 +2964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3294,7 +3042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="32.1" customHeight="1">
+    <row r="3" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
@@ -3337,7 +3085,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="32.1" customHeight="1">
+    <row r="4" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
@@ -3380,7 +3128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="32.1" customHeight="1">
+    <row r="5" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -3423,7 +3171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="32.1" customHeight="1">
+    <row r="6" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3214,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="32.1" customHeight="1">
+    <row r="7" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3507,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="32.1" customHeight="1">
+    <row r="8" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="32.1" customHeight="1">
+    <row r="9" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
@@ -3582,7 +3330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="32.1" customHeight="1">
+    <row r="10" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
@@ -3614,7 +3362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32.1" customHeight="1">
+    <row r="11" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="32.1" customHeight="1">
+    <row r="12" spans="1:14" ht="32.1" hidden="1" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>26</v>
       </c>
@@ -3801,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>36</v>
@@ -3833,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>84</v>
@@ -4207,7 +3955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="35.1" customHeight="1">
+    <row r="28" spans="1:15" ht="35.1" hidden="1" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
@@ -4239,7 +3987,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="35.1" customHeight="1">
+    <row r="29" spans="1:15" ht="35.1" hidden="1" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
@@ -4271,7 +4019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="35.1" customHeight="1">
+    <row r="30" spans="1:15" ht="35.1" hidden="1" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -4303,7 +4051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="35.1" customHeight="1">
+    <row r="31" spans="1:15" ht="35.1" hidden="1" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>88</v>
       </c>
@@ -4335,7 +4083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="35.1" customHeight="1">
+    <row r="32" spans="1:15" ht="35.1" hidden="1" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>89</v>
       </c>
@@ -4367,7 +4115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="35.1" customHeight="1">
+    <row r="33" spans="1:10" ht="35.1" hidden="1" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>90</v>
       </c>
@@ -4399,7 +4147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="35.1" customHeight="1">
+    <row r="34" spans="1:10" ht="35.1" hidden="1" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>91</v>
       </c>
@@ -4431,7 +4179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="35.1" customHeight="1">
+    <row r="35" spans="1:10" ht="35.1" hidden="1" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>92</v>
       </c>
@@ -4463,7 +4211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="28.5">
+    <row r="36" spans="1:10" ht="28.5" hidden="1">
       <c r="A36" s="53" t="s">
         <v>93</v>
       </c>
@@ -4495,7 +4243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1">
+    <row r="37" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>98</v>
       </c>
@@ -4527,7 +4275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30" customHeight="1">
+    <row r="38" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>99</v>
       </c>
@@ -4559,7 +4307,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1">
+    <row r="39" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>100</v>
       </c>
@@ -4591,7 +4339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" customHeight="1">
+    <row r="40" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A40" s="53" t="s">
         <v>101</v>
       </c>
@@ -4623,7 +4371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" customHeight="1">
+    <row r="41" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A41" s="53" t="s">
         <v>102</v>
       </c>
@@ -4655,7 +4403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" customHeight="1">
+    <row r="42" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>105</v>
       </c>
@@ -4687,7 +4435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1">
+    <row r="43" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A43" s="53" t="s">
         <v>104</v>
       </c>
@@ -4719,7 +4467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30" customHeight="1">
+    <row r="44" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A44" s="53" t="s">
         <v>103</v>
       </c>
@@ -4752,7 +4500,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J44" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}"/>
+  <autoFilter ref="A2:J44" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="SPRINT2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L26:M26"/>

--- a/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
+++ b/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Projeto\projeto-pi\Documentação\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7837E0A1-EC4C-43C0-AAB9-F92E9E4E8307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0AFE22-D1D6-4D3D-B994-8C2B4A2D8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0E4C50FC-4743-41E1-8EF2-E2C48055392E}"/>
   </bookViews>
@@ -1745,9 +1745,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>BackLog!$L$3:$L$7</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1833,9 +1833,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>BackLog!$L$3:$L$7</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2967,8 +2967,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3613,7 +3613,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>34</v>

--- a/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
+++ b/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Projeto\projeto-pi\Documentação\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0AFE22-D1D6-4D3D-B994-8C2B4A2D8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED818D-3F46-4FC1-9BC7-EB93CFC53CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0E4C50FC-4743-41E1-8EF2-E2C48055392E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="130">
   <si>
     <t>Requisito</t>
   </si>
@@ -1030,7 +1030,140 @@
     <cellStyle name="Feito" xfId="1" xr:uid="{5B153B00-796B-4D41-98D1-35BE0DB48071}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1745,13 +1878,50 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>BackLog!$L$3:$L$7</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPRINT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>BackLog!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1833,13 +2003,50 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>BackLog!$L$3:$L$7</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SPRINT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>BackLog!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1857,7 +2064,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1814549743"/>
         <c:axId val="1814548303"/>
@@ -2964,11 +3170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3042,7 +3247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="3" spans="1:14" ht="32.1" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3290,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="4" spans="1:14" ht="32.1" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
@@ -3128,7 +3333,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="5" spans="1:14" ht="32.1" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -3171,7 +3376,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="6" spans="1:14" ht="32.1" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
@@ -3214,7 +3419,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="7" spans="1:14" ht="32.1" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
@@ -3255,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="8" spans="1:14" ht="32.1" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -3298,7 +3503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="9" spans="1:14" ht="32.1" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +3526,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>36</v>
@@ -3330,7 +3535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="10" spans="1:14" ht="32.1" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
@@ -3362,7 +3567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="11" spans="1:14" ht="32.1" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -3394,7 +3599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="32.1" hidden="1" customHeight="1">
+    <row r="12" spans="1:14" ht="32.1" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>26</v>
       </c>
@@ -3644,8 +3849,8 @@
       <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="40" t="s">
-        <v>32</v>
+      <c r="H19" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>34</v>
@@ -3677,7 +3882,7 @@
         <v>29</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>84</v>
@@ -3711,7 +3916,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>35</v>
@@ -3790,7 +3995,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>33</v>
@@ -3946,7 +4151,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>35</v>
@@ -3955,7 +4160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="35.1" hidden="1" customHeight="1">
+    <row r="28" spans="1:15" ht="35.1" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
@@ -3987,7 +4192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="35.1" hidden="1" customHeight="1">
+    <row r="29" spans="1:15" ht="35.1" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
@@ -4019,7 +4224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="35.1" hidden="1" customHeight="1">
+    <row r="30" spans="1:15" ht="35.1" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -4051,7 +4256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="35.1" hidden="1" customHeight="1">
+    <row r="31" spans="1:15" ht="35.1" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>88</v>
       </c>
@@ -4083,7 +4288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="35.1" hidden="1" customHeight="1">
+    <row r="32" spans="1:15" ht="35.1" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>89</v>
       </c>
@@ -4115,7 +4320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="35.1" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" ht="35.1" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>90</v>
       </c>
@@ -4147,7 +4352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="35.1" hidden="1" customHeight="1">
+    <row r="34" spans="1:10" ht="35.1" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>91</v>
       </c>
@@ -4179,7 +4384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="35.1" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" ht="35.1" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>92</v>
       </c>
@@ -4211,7 +4416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="28.5" hidden="1">
+    <row r="36" spans="1:10" ht="28.5">
       <c r="A36" s="53" t="s">
         <v>93</v>
       </c>
@@ -4243,7 +4448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="37" spans="1:10" ht="30" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>98</v>
       </c>
@@ -4275,7 +4480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="38" spans="1:10" ht="30" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>99</v>
       </c>
@@ -4307,7 +4512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="39" spans="1:10" ht="30" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>100</v>
       </c>
@@ -4339,7 +4544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="40" spans="1:10" ht="30" customHeight="1">
       <c r="A40" s="53" t="s">
         <v>101</v>
       </c>
@@ -4371,7 +4576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" ht="30" customHeight="1">
       <c r="A41" s="53" t="s">
         <v>102</v>
       </c>
@@ -4403,7 +4608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="42" spans="1:10" ht="30" customHeight="1">
       <c r="A42" s="53" t="s">
         <v>105</v>
       </c>
@@ -4435,7 +4640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="43" spans="1:10" ht="30" customHeight="1">
       <c r="A43" s="53" t="s">
         <v>104</v>
       </c>
@@ -4467,7 +4672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="44" spans="1:10" ht="30" customHeight="1">
       <c r="A44" s="53" t="s">
         <v>103</v>
       </c>
@@ -4500,13 +4705,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J44" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="SPRINT2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:J44" xr:uid="{2F959334-FF27-4A0F-9E6B-19A8615EAC13}"/>
   <mergeCells count="7">
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L26:M26"/>
@@ -4518,46 +4717,46 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C3:C44">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D44">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H44">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H18 H20:H44" xr:uid="{57770960-B32A-4E77-8824-5E34729DA2D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H44" xr:uid="{57770960-B32A-4E77-8824-5E34729DA2D1}">
       <formula1>"Feito,Em andamento,Pendente"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D44" xr:uid="{46B54BAF-FF80-4DEE-882A-3CFF59A27D0D}">
@@ -4577,7 +4776,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4861,7 +5060,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>36</v>
@@ -4984,41 +5183,41 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D12">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5041,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAED0775-6934-4098-9663-CA2793669A6A}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5163,7 +5362,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>33</v>
@@ -5198,7 +5397,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>36</v>
@@ -5233,7 +5432,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>36</v>
@@ -5268,7 +5467,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>84</v>
@@ -5303,7 +5502,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>34</v>
@@ -5337,8 +5536,8 @@
       <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="40" t="s">
-        <v>32</v>
+      <c r="H9" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>34</v>
@@ -5370,7 +5569,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>84</v>
@@ -5402,7 +5601,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>35</v>
@@ -5434,7 +5633,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>34</v>
@@ -5466,7 +5665,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>33</v>
@@ -5498,7 +5697,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>84</v>
@@ -5530,7 +5729,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>36</v>
@@ -5562,7 +5761,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>34</v>
@@ -5594,7 +5793,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>35</v>
@@ -5608,52 +5807,52 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D17">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H17">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{0172C48A-162C-48BC-A562-EF9F3673FD01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17" xr:uid="{2EDCFD77-4A05-4DC0-85D6-A8061A7E6EBD}">
       <formula1>"Essencial,Importante,Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{46EB59CC-80EE-48F0-B0EE-8DD2C4806ED1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{9028A02B-B111-4048-B302-D178D97010F8}">
       <formula1>"PP,P,M,G,GG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8 H10:H17" xr:uid="{23E4FBFB-4229-4358-87A5-98F7C74BA8E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H17" xr:uid="{38561C94-5932-40E7-9F68-448F2EF62603}">
       <formula1>"Feito,Em andamento,Pendente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5666,7 +5865,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5751,7 +5950,9 @@
       <c r="H3" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>70</v>
       </c>
@@ -5781,7 +5982,9 @@
       <c r="H4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>70</v>
       </c>
@@ -5811,7 +6014,9 @@
       <c r="H5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>70</v>
       </c>
@@ -5841,7 +6046,9 @@
       <c r="H6" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>73</v>
       </c>
@@ -5871,7 +6078,9 @@
       <c r="H7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5901,7 +6110,9 @@
       <c r="H8" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>71</v>
       </c>
@@ -5931,7 +6142,9 @@
       <c r="H9" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>71</v>
       </c>
@@ -5961,7 +6174,9 @@
       <c r="H10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>71</v>
       </c>
@@ -5991,7 +6206,9 @@
       <c r="H11" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>71</v>
       </c>
@@ -6021,7 +6238,9 @@
       <c r="H12" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>68</v>
       </c>
@@ -6051,7 +6270,9 @@
       <c r="H13" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>68</v>
       </c>
@@ -6081,7 +6302,9 @@
       <c r="H14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>68</v>
       </c>
@@ -6111,7 +6334,9 @@
       <c r="H15" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="J15" s="4" t="s">
         <v>68</v>
       </c>
@@ -6141,7 +6366,9 @@
       <c r="H16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="J16" s="4" t="s">
         <v>68</v>
       </c>
@@ -6171,7 +6398,9 @@
       <c r="H17" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="J17" s="4" t="s">
         <v>69</v>
       </c>
@@ -6201,7 +6430,9 @@
       <c r="H18" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="J18" s="4" t="s">
         <v>69</v>
       </c>
@@ -6231,7 +6462,9 @@
       <c r="H19" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="22"/>
+      <c r="I19" s="31" t="s">
+        <v>36</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>69</v>
       </c>
@@ -6241,41 +6474,41 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C19">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D19">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H19">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
+++ b/Documentação/Documentação/TI-Backlog-Grupo10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Projeto\projeto-pi\Documentação\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\projeto\projeto-pi\Documentação\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED818D-3F46-4FC1-9BC7-EB93CFC53CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACD889B-2784-4ADA-A47D-64D58B9A0B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0E4C50FC-4743-41E1-8EF2-E2C48055392E}"/>
   </bookViews>
@@ -1030,140 +1030,7 @@
     <cellStyle name="Feito" xfId="1" xr:uid="{5B153B00-796B-4D41-98D1-35BE0DB48071}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <b/>
@@ -3173,7 +3040,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4112,7 +3979,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>34</v>
@@ -4717,41 +4584,41 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C3:C44">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D44">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H44">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5183,41 +5050,41 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D12">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H12">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5807,41 +5674,41 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D17">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H17">
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6474,41 +6341,41 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C19">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Desejável">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Desejável">
       <formula>NOT(ISERROR(SEARCH("Desejável",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Importante">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Importante">
       <formula>NOT(ISERROR(SEARCH("Importante",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="Essencial">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Essencial">
       <formula>NOT(ISERROR(SEARCH("Essencial",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D19">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="PP">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="PP">
       <formula>NOT(ISERROR(SEARCH("PP",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="GG">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="GG">
       <formula>NOT(ISERROR(SEARCH("GG",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="G">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="M">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="M">
       <formula>NOT(ISERROR(SEARCH("M",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H19">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Pendente">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Pendente">
       <formula>NOT(ISERROR(SEARCH("Pendente",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Feito">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="Feito">
       <formula>NOT(ISERROR(SEARCH("Feito",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
